--- a/Art5_classified_V1_V2_Analysis.xlsx
+++ b/Art5_classified_V1_V2_Analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khushi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khushi\Documents\GitHub\Challenges-in-annotations-by-humans-and-LLMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E5D090-190E-4341-B61D-1C03E4F559EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153C66BA-23D3-4425-A885-16CFA7D68AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="175">
   <si>
     <t>Text_ID</t>
   </si>
@@ -458,6 +458,93 @@
   </si>
   <si>
     <t>Correct</t>
+  </si>
+  <si>
+    <t>Version 3</t>
+  </si>
+  <si>
+    <t>The TARGET expresses a personal emotional reaction (nauseous, dizzy) and interprets it as a positive sign, indicating an evaluative stance toward the creative process.</t>
+  </si>
+  <si>
+    <t>The TARGET expresses a negative emotional anticipation about losing health and loved ones, indicating evaluative concern about significant personal losses.</t>
+  </si>
+  <si>
+    <t>The TARGET expresses a negative emotional tone about inevitable personal losses, indicating a value judgment on life's hardships and emotional impact.</t>
+  </si>
+  <si>
+    <t>The sentence describes a habitual action without expressing emotion, judgment, or value evaluation. It is a neutral, factual statement about developing a routine.</t>
+  </si>
+  <si>
+    <t>The TARGET text states a factual detail about the speaker's family size and birth order without expressing emotion, judgment, or evaluation of quality or value.</t>
+  </si>
+  <si>
+    <t>The sentence states a factual detail about family vacation logistics without expressing emotion, judgment, or evaluation of quality or value.</t>
+  </si>
+  <si>
+    <t>The sentence states a temporal observation and a neutral fact about the date, with no emotional stance, judgment, or value evaluation.</t>
+  </si>
+  <si>
+    <t>The phrase 'in total control' implies a judgment of personal power or dominance, suggesting a value-laden evaluation of the speaker's state or experience.</t>
+  </si>
+  <si>
+    <t>The phrase 'all the bugs in it' implies a negative evaluation of quality or functionality, suggesting criticism of the system or product.</t>
+  </si>
+  <si>
+    <t>The phrase 'bring us to our knees' conveys a strong emotional response, indicating profound distress or overwhelming impact, which reflects an evaluative stance on the effect of the losses.</t>
+  </si>
+  <si>
+    <t>The TARGET expresses emotional and value-laden language ('sacred ritual') reflecting a positive evaluation of daily activities, indicating personal significance and emotional depth.</t>
+  </si>
+  <si>
+    <t>which is really just adrenaline, probably, but for me it's a really good sign</t>
+  </si>
+  <si>
+    <t>in total control</t>
+  </si>
+  <si>
+    <t>I got kind of nauseous and dizzy ||| which is really just adrenaline ||| but for me it's a really good sign</t>
+  </si>
+  <si>
+    <t>The text expresses physical and emotional reactions (nausea, dizziness) linked to excitement, interpreted as a personal emotional response. This aligns with 'affect' as the primary category, as it centers on internal feelings rather than evaluation of people, behavior, or things.</t>
+  </si>
+  <si>
+    <t>The expressions 'fell to my knees' and 'totally lost it' convey intense emotional reactions, indicating personal feelings or distress. These are clear indicators of affect, as they reflect internal emotional states rather than evaluations of behavior or quality.</t>
+  </si>
+  <si>
+    <t>The TARGET expresses emotional anticipation of personal loss, particularly of health and loved ones, which evokes sorrow and fear. This aligns with 'affect' as it reflects feelings about inevitable emotional pain, not evaluation of behavior (judgment) or quality (appreciation).</t>
+  </si>
+  <si>
+    <t>We're all going to have big losses in our lives ||| relationships, love, our youth ||| We're going to lose our health, people we love</t>
+  </si>
+  <si>
+    <t>The text expresses emotional weight around inevitable personal losses, evoking sadness and vulnerability. While it describes events, the tone and focus on personal experience align with affect, not evaluation of behavior (judgment) or quality (appreciation).</t>
+  </si>
+  <si>
+    <t>We had warm towels and slippers ready immediately ||| so she never got cold for a second</t>
+  </si>
+  <si>
+    <t>The text evaluates the quality and value of preparedness and care in a situation, focusing on the effectiveness and comfort provided. This reflects appreciation of a process and its outcomes, not emotions or moral evaluation.</t>
+  </si>
+  <si>
+    <t>The phrase 'the beautiful awful' evaluates the quality and value of a complex experience, reflecting appreciation of its dual nature. While affect is present, the primary focus is on the evaluative quality of the time, aligning with appreciation.</t>
+  </si>
+  <si>
+    <t>The statement evaluates a setting or condition in terms of its significance and quality, focusing on the nature of the experience. It reflects a value-laden assessment of a personal environment, aligning with appreciation as the primary category.</t>
+  </si>
+  <si>
+    <t>The statements express deep personal emotional significance and longing, reflecting inner feelings and subjective value. No evaluation of behavior or social norms is present, and the focus is on personal emotional weight, aligning with affect.</t>
+  </si>
+  <si>
+    <t>The statement evaluates a thing (a system or project) based on its quality and flaws, focusing on its inherent characteristics. This aligns with appreciation, as it assesses value and quality without emotional expression or moral evaluation of people.</t>
+  </si>
+  <si>
+    <t>The phrase 'bring us to our knees' expresses a strong emotional response, indicating distress or overwhelming feeling. This aligns with affect, as it conveys personal emotional reaction rather than evaluation of behavior (judgment) or quality (appreciation).</t>
+  </si>
+  <si>
+    <t>It was humbling and painful ||| exactly where I wanted to be</t>
+  </si>
+  <si>
+    <t>The text expresses personal emotional states—humility, pain, and deep personal satisfaction—centered on inner feelings. 'Humbling and painful' reflects affective response, while 'exactly where I wanted to be' reinforces emotional significance. No evaluation of people or social norms (judgment), nor of things' qualities (appreciation), so affect is dominant.</t>
   </si>
 </sst>
 </file>
@@ -567,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -581,14 +668,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -891,15 +977,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="W13" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
     <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="1.33203125" style="5" customWidth="1"/>
     <col min="11" max="11" width="14.77734375" customWidth="1"/>
@@ -928,8 +1014,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2064,8 +2150,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2159,7 +2245,7 @@
       <c r="I26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="7"/>
+      <c r="J26" s="5"/>
       <c r="K26" s="2">
         <v>0</v>
       </c>
@@ -2204,7 +2290,7 @@
       <c r="I27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="7"/>
+      <c r="J27" s="5"/>
       <c r="K27" s="2">
         <v>0</v>
       </c>
@@ -2246,7 +2332,7 @@
       <c r="I28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="7"/>
+      <c r="J28" s="5"/>
       <c r="K28" s="2">
         <v>0</v>
       </c>
@@ -2288,7 +2374,7 @@
       <c r="I29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="7"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="2">
         <v>0</v>
       </c>
@@ -2330,7 +2416,7 @@
       <c r="I30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="7"/>
+      <c r="J30" s="5"/>
       <c r="K30" s="2">
         <v>1</v>
       </c>
@@ -2393,7 +2479,7 @@
       <c r="I31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="7"/>
+      <c r="J31" s="5"/>
       <c r="K31" s="2">
         <v>1</v>
       </c>
@@ -2494,7 +2580,7 @@
       <c r="I33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="7"/>
+      <c r="J33" s="5"/>
       <c r="K33" s="2">
         <v>0</v>
       </c>
@@ -2536,7 +2622,7 @@
       <c r="I34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="7"/>
+      <c r="J34" s="5"/>
       <c r="K34" s="2">
         <v>0</v>
       </c>
@@ -2613,7 +2699,7 @@
       <c r="I36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J36" s="7"/>
+      <c r="J36" s="5"/>
       <c r="K36" s="2">
         <v>1</v>
       </c>
@@ -2865,7 +2951,7 @@
       <c r="I40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J40" s="8"/>
+      <c r="J40" s="5"/>
       <c r="K40" s="3">
         <v>1</v>
       </c>
@@ -2928,7 +3014,7 @@
       <c r="I41" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J41" s="7"/>
+      <c r="J41" s="5"/>
       <c r="K41" s="2">
         <v>0</v>
       </c>
@@ -2970,7 +3056,7 @@
       <c r="I42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="7"/>
+      <c r="J42" s="5"/>
       <c r="K42" s="2">
         <v>1</v>
       </c>
@@ -3033,7 +3119,7 @@
       <c r="I43" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J43" s="7"/>
+      <c r="J43" s="5"/>
       <c r="K43" s="2">
         <v>1</v>
       </c>
@@ -3099,7 +3185,7 @@
       <c r="I44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J44" s="8"/>
+      <c r="J44" s="5"/>
       <c r="K44" s="3">
         <v>1</v>
       </c>
@@ -3162,7 +3248,7 @@
       <c r="I45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J45" s="7"/>
+      <c r="J45" s="5"/>
       <c r="K45" s="2">
         <v>1</v>
       </c>
@@ -3203,10 +3289,1236 @@
         <v>140</v>
       </c>
     </row>
+    <row r="46" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="5"/>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48" s="2">
+        <v>0</v>
+      </c>
+      <c r="O48" s="2">
+        <v>0</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S48" s="2">
+        <v>0</v>
+      </c>
+      <c r="T48" s="2">
+        <v>0</v>
+      </c>
+      <c r="U48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" s="5"/>
+      <c r="K49" s="3">
+        <v>1</v>
+      </c>
+      <c r="L49" s="3">
+        <v>1</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="9">
+        <v>1</v>
+      </c>
+      <c r="E50" s="9">
+        <v>1</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="5"/>
+      <c r="K50" s="9">
+        <v>1</v>
+      </c>
+      <c r="L50" s="9">
+        <v>1</v>
+      </c>
+      <c r="M50" s="9">
+        <v>0</v>
+      </c>
+      <c r="N50" s="9">
+        <v>0</v>
+      </c>
+      <c r="O50" s="9">
+        <v>0</v>
+      </c>
+      <c r="P50" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q50" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S50" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="T50" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="U50" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="V50" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W50" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="9">
+        <v>1</v>
+      </c>
+      <c r="E51" s="9">
+        <v>1</v>
+      </c>
+      <c r="H51" s="9">
+        <v>0</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="5"/>
+      <c r="K51" s="9">
+        <v>1</v>
+      </c>
+      <c r="L51" s="9">
+        <v>1</v>
+      </c>
+      <c r="M51" s="9">
+        <v>0</v>
+      </c>
+      <c r="N51" s="9">
+        <v>0</v>
+      </c>
+      <c r="O51" s="9">
+        <v>0</v>
+      </c>
+      <c r="P51" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q51" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S51" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="T51" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="U51" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="V51" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="W51" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="9">
+        <v>1</v>
+      </c>
+      <c r="E52" s="9">
+        <v>1</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="5"/>
+      <c r="K52" s="9">
+        <v>1</v>
+      </c>
+      <c r="L52" s="9">
+        <v>1</v>
+      </c>
+      <c r="M52" s="9">
+        <v>0</v>
+      </c>
+      <c r="N52" s="9">
+        <v>0</v>
+      </c>
+      <c r="O52" s="9">
+        <v>0</v>
+      </c>
+      <c r="P52" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q52" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="R52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S52" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="T52" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="U52" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="V52" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="W52" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="9">
+        <v>1</v>
+      </c>
+      <c r="G53" s="9">
+        <v>1</v>
+      </c>
+      <c r="H53" s="9">
+        <v>0</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="5"/>
+      <c r="K53" s="9">
+        <v>1</v>
+      </c>
+      <c r="L53" s="9">
+        <v>0</v>
+      </c>
+      <c r="M53" s="9">
+        <v>0</v>
+      </c>
+      <c r="N53" s="9">
+        <v>1</v>
+      </c>
+      <c r="O53" s="9">
+        <v>0</v>
+      </c>
+      <c r="P53" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q53" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="R53" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S53" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="T53" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="U53" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="V53" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="W53" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J54" s="5"/>
+      <c r="K54" s="9">
+        <v>0</v>
+      </c>
+      <c r="L54" s="9">
+        <v>0</v>
+      </c>
+      <c r="M54" s="9">
+        <v>0</v>
+      </c>
+      <c r="N54" s="9">
+        <v>0</v>
+      </c>
+      <c r="O54" s="9">
+        <v>0</v>
+      </c>
+      <c r="P54" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="S54" s="9">
+        <v>0</v>
+      </c>
+      <c r="T54" s="9">
+        <v>0</v>
+      </c>
+      <c r="U54" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="5"/>
+      <c r="K55" s="2">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0</v>
+      </c>
+      <c r="N55" s="2">
+        <v>0</v>
+      </c>
+      <c r="O55" s="2">
+        <v>0</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="S55" s="2">
+        <v>0</v>
+      </c>
+      <c r="T55" s="2">
+        <v>0</v>
+      </c>
+      <c r="U55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="9">
+        <v>1</v>
+      </c>
+      <c r="G56" s="9">
+        <v>1</v>
+      </c>
+      <c r="H56" s="9">
+        <v>0</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="5"/>
+      <c r="K56" s="9">
+        <v>1</v>
+      </c>
+      <c r="L56" s="9">
+        <v>0</v>
+      </c>
+      <c r="M56" s="9">
+        <v>0</v>
+      </c>
+      <c r="N56" s="9">
+        <v>1</v>
+      </c>
+      <c r="O56" s="9">
+        <v>0</v>
+      </c>
+      <c r="P56" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q56" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="R56" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S56" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="T56" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="U56" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="V56" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="W56" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="9">
+        <v>0</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J57" s="5"/>
+      <c r="K57" s="9">
+        <v>0</v>
+      </c>
+      <c r="L57" s="9">
+        <v>0</v>
+      </c>
+      <c r="M57" s="9">
+        <v>0</v>
+      </c>
+      <c r="N57" s="9">
+        <v>0</v>
+      </c>
+      <c r="O57" s="9">
+        <v>0</v>
+      </c>
+      <c r="P57" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="S57" s="9">
+        <v>0</v>
+      </c>
+      <c r="T57" s="9">
+        <v>0</v>
+      </c>
+      <c r="U57" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J58" s="5"/>
+      <c r="K58" s="9">
+        <v>0</v>
+      </c>
+      <c r="L58" s="9">
+        <v>0</v>
+      </c>
+      <c r="M58" s="9">
+        <v>0</v>
+      </c>
+      <c r="N58" s="9">
+        <v>0</v>
+      </c>
+      <c r="O58" s="9">
+        <v>0</v>
+      </c>
+      <c r="P58" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="S58" s="9">
+        <v>0</v>
+      </c>
+      <c r="T58" s="9">
+        <v>0</v>
+      </c>
+      <c r="U58" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="5"/>
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2">
+        <v>0</v>
+      </c>
+      <c r="N59" s="2">
+        <v>0</v>
+      </c>
+      <c r="O59" s="2">
+        <v>0</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="S59" s="2">
+        <v>0</v>
+      </c>
+      <c r="T59" s="2">
+        <v>0</v>
+      </c>
+      <c r="U59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="5"/>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0</v>
+      </c>
+      <c r="M60" s="2">
+        <v>0</v>
+      </c>
+      <c r="N60" s="2">
+        <v>0</v>
+      </c>
+      <c r="O60" s="2">
+        <v>0</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="S60" s="2">
+        <v>0</v>
+      </c>
+      <c r="T60" s="2">
+        <v>0</v>
+      </c>
+      <c r="U60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="5"/>
+      <c r="K61" s="3">
+        <v>1</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>1</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q61" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="R61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="V61" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="W61" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J62" s="5"/>
+      <c r="K62" s="3">
+        <v>1</v>
+      </c>
+      <c r="L62" s="3">
+        <v>1</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="9">
+        <v>1</v>
+      </c>
+      <c r="G63" s="9">
+        <v>1</v>
+      </c>
+      <c r="H63" s="9">
+        <v>0</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" s="5"/>
+      <c r="K63" s="9">
+        <v>1</v>
+      </c>
+      <c r="L63" s="9">
+        <v>0</v>
+      </c>
+      <c r="M63" s="9">
+        <v>0</v>
+      </c>
+      <c r="N63" s="9">
+        <v>1</v>
+      </c>
+      <c r="O63" s="9">
+        <v>0</v>
+      </c>
+      <c r="P63" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q63" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="R63" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S63" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="T63" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="U63" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="V63" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="W63" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="5"/>
+      <c r="K64" s="2">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0</v>
+      </c>
+      <c r="M64" s="2">
+        <v>0</v>
+      </c>
+      <c r="N64" s="2">
+        <v>0</v>
+      </c>
+      <c r="O64" s="2">
+        <v>0</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="S64" s="2">
+        <v>0</v>
+      </c>
+      <c r="T64" s="2">
+        <v>0</v>
+      </c>
+      <c r="U64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="5"/>
+      <c r="K65" s="2">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0</v>
+      </c>
+      <c r="M65" s="2">
+        <v>0</v>
+      </c>
+      <c r="N65" s="2">
+        <v>0</v>
+      </c>
+      <c r="O65" s="2">
+        <v>0</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S65" s="2">
+        <v>0</v>
+      </c>
+      <c r="T65" s="2">
+        <v>0</v>
+      </c>
+      <c r="U65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J66" s="5"/>
+      <c r="K66" s="3">
+        <v>1</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S66" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="T66" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="U66" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+      <c r="H67" s="3">
+        <v>0</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J67" s="5"/>
+      <c r="K67" s="3">
+        <v>1</v>
+      </c>
+      <c r="L67" s="3">
+        <v>1</v>
+      </c>
+      <c r="M67" s="3">
+        <v>0</v>
+      </c>
+      <c r="N67" s="3">
+        <v>0</v>
+      </c>
+      <c r="O67" s="3">
+        <v>0</v>
+      </c>
+      <c r="P67" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q67" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S67" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="T67" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="U67" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="V67" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="W67" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A24:XFD24"/>
     <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A46:XFD46"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
